--- a/TallerProgramacion/Archivo.xlsx
+++ b/TallerProgramacion/Archivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion\Github\TechnoMarket\TallerProgramacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anita\OneDrive\Escritorio\TechnoMarket\TallerProgramacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31279A60-C77E-40B6-AA6D-A96A8FFAADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2830B-3CD0-4C93-80A3-6A1E9EE3E870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ClasePadre" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -93,13 +93,121 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>¿Sabes qué es la inseguridad?
+¿Sabes lo que es sentir la soledad?
+Mi peor error fue haber aceptado mi fealdad
+Porque ahora ya no tengo dónde esconder el miedo
+Y el miedo sigue vivo; se la vive aquí conmigo
+Yo me baso en la apariencia, con placer y sin conciencia
+Espero que algún día, tu atención fijes en mí
+Es por eso que ahora visto así
+Quiero ser elegante y estilero hasta el fin
+No podré proyectarlo; me lo tengo que creer
+Suponiendo que en la gente la belleza es natural
+Pues belleza es la palabra que aún no logro concretar
+Disfraz, disfraz
+Narcisista artificial
+Disfraz, disfraz
+Todo es mental
+¿Cómo me peinaré esta noche?
+¿Qué ropa me combinará mejor?
+Tener tu interés
+Convertirlo en amor
+Quisiera poder saber qué piensas
+¿Me veré bien o acaso me veo mal?
+Sé que es patético
+Pero en mí es normal
+Suponiendo que en la gente la belleza es natural
+Pues belleza es la palabra que aún no logro concretar
+Disfraz, disfraz
+Narcisista artificial
+Disfraz, disfraz
+Todo es mental
+Suponiendo que en la gente la belleza es natural
+Pues belleza es la palabra que aún no logro concretar
+Disfraz, disfraz
+Narcisista artificial
+Disfraz, disfraz
+Todo es mental</t>
+  </si>
+  <si>
+    <t>Amantes sunt amentes</t>
+  </si>
+  <si>
+    <t>Contra reloj</t>
+  </si>
+  <si>
+    <t>Vasos y besos</t>
+  </si>
+  <si>
+    <t>Hace frío y estoy lejos de casa
+Hace tiempo que estoy sentado sobre esta piedra
+Yo me pregunto
+¿Para qué sirven las guerras?
+Tengo un cohete en el pantalón
+Vos estás tan fría como la nieve a mi alrededor
+Vos estás tan blanca, que yo no sé qué hacer
+La otra noche te esperé
+Bajo la lluvia dos horas
+Mil horas como un perro
+Y cuando llegaste me miraste
+Y me dijiste, "Loco
+Estás mojado, ya no te quiero"
+En el circo vos ya sos una estrella
+Una estrella roja que todo se lo imagina
+Si te preguntan, vos no me conocías
+No, no
+Te tengo un cohete en el pantalón
+Vos estás tan fría como la nieve a mi alrededor
+Vos estás tan blanca, que ya no sé qué hacer
+Te esperé bajo la lluvia, no, no, no
+La otra noche te esperé
+Bajo la lluvia dos horas
+Mil horas como un perro
+Y cuando llegaste me miraste
+Y me dijiste, "Loco
+Estás mojado, ya no te quiero"
+La otra noche te esperé
+Bajo la lluvia dos horas
+Mil horas como un perro
+Y cuando llegaste me miraste
+Y me dijiste, "Loco
+Estás mojado, ya no te quiero"</t>
+  </si>
+  <si>
+    <t>Estoy parado sobre la muralla que divide
+Todo lo que fué de lo que será
+Estoy mirando como esas viejas ilusiones
+Pasando la muralla se hacen realidad
+Pero como el amor de ayer
+Pero como el amor de ayer
+Vuelve a desaparecer
+Desaparecer
+Estoy parado sobre la muralla que divide
+Todo lo que amé de lo que amaré
+Estoy mirando cómo mis heridas se cerraron
+Y cómo se desangra un nuevo corazón
+Pero como el amor de ayer
+Pero como el amor de ayer
+Vuelve a desaparecer
+Desaparecer
+Estoy parado sobre la muralla que divide
+Todo lo que fue de lo que será
+Estoy mirando como aquella vieja psicodelia
+Estoy fijándome como viene y va
+Pero como el amor de ayer
+Pero como el amor de ayer
+Vuelve a desaparecer
+Desaparecer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +224,20 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,21 +275,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,116 +603,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>0.11666666666666665</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>1983</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.11180555555555556</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1986</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>0.15763888888888888</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>2006</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="5"/>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -591,85 +724,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="5"/>
+    <col min="2" max="2" width="14.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.90625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>23</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>21</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="https://www.google.com/search?client=opera-gx&amp;hs=hcr&amp;sca_esv=569923274&amp;q=Panda+Amantes+sunt+amentes&amp;stick=H4sIAAAAAAAAAONgVuLSz9U3ME43SSozfcRoyi3w8sc9YSmdSWtOXmNU4-IKzsgvd80rySypFJLgYoOy-KR4uJC08SxilQpIzEtJVHDMTcwrSS1WKC7NK1FIzE0FcQA6Kmo_YwAAAA&amp;sa=X&amp;ved=2ahUKEwiT7NvMntaBAxVplGoFHarnAuYQzIcDKAB6BAgiEAE" xr:uid="{8670622A-8542-4E39-B535-B6FF18481122}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>